--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Comp-Itgb3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Comp-Itgb3.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.388528</v>
+        <v>0.947566</v>
       </c>
       <c r="H2">
-        <v>1.165584</v>
+        <v>2.842698</v>
       </c>
       <c r="I2">
-        <v>0.007753939069753493</v>
+        <v>0.01860557227824198</v>
       </c>
       <c r="J2">
-        <v>0.007753939069753493</v>
+        <v>0.01860557227824198</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.481489333333334</v>
+        <v>2.759544333333333</v>
       </c>
       <c r="N2">
-        <v>7.444468000000001</v>
+        <v>8.278632999999999</v>
       </c>
       <c r="O2">
-        <v>0.2345069082418988</v>
+        <v>0.2574067337278401</v>
       </c>
       <c r="P2">
-        <v>0.2345069082418988</v>
+        <v>0.2574067337278401</v>
       </c>
       <c r="Q2">
-        <v>0.9641280877013334</v>
+        <v>2.614850385759333</v>
       </c>
       <c r="R2">
-        <v>8.677152789312</v>
+        <v>23.533653471834</v>
       </c>
       <c r="S2">
-        <v>0.001818352277943956</v>
+        <v>0.004789199589279517</v>
       </c>
       <c r="T2">
-        <v>0.001818352277943956</v>
+        <v>0.004789199589279516</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.388528</v>
+        <v>0.947566</v>
       </c>
       <c r="H3">
-        <v>1.165584</v>
+        <v>2.842698</v>
       </c>
       <c r="I3">
-        <v>0.007753939069753493</v>
+        <v>0.01860557227824198</v>
       </c>
       <c r="J3">
-        <v>0.007753939069753493</v>
+        <v>0.01860557227824198</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>21.735681</v>
       </c>
       <c r="O3">
-        <v>0.6846919551326143</v>
+        <v>0.6758254232987829</v>
       </c>
       <c r="P3">
-        <v>0.6846919551326142</v>
+        <v>0.6758254232987829</v>
       </c>
       <c r="Q3">
-        <v>2.814973555856</v>
+        <v>6.865330767482</v>
       </c>
       <c r="R3">
-        <v>25.334762002704</v>
+        <v>61.787976907338</v>
       </c>
       <c r="S3">
-        <v>0.005309059701648683</v>
+        <v>0.01257411876065899</v>
       </c>
       <c r="T3">
-        <v>0.005309059701648683</v>
+        <v>0.01257411876065899</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.388528</v>
+        <v>0.947566</v>
       </c>
       <c r="H4">
-        <v>1.165584</v>
+        <v>2.842698</v>
       </c>
       <c r="I4">
-        <v>0.007753939069753493</v>
+        <v>0.01860557227824198</v>
       </c>
       <c r="J4">
-        <v>0.007753939069753493</v>
+        <v>0.01860557227824198</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.6548283333333335</v>
+        <v>0.5200313333333334</v>
       </c>
       <c r="N4">
-        <v>1.964485</v>
+        <v>1.560094</v>
       </c>
       <c r="O4">
-        <v>0.06188290468003712</v>
+        <v>0.0485078515798926</v>
       </c>
       <c r="P4">
-        <v>0.06188290468003711</v>
+        <v>0.0485078515798926</v>
       </c>
       <c r="Q4">
-        <v>0.2544191426933334</v>
+        <v>0.4927640104013334</v>
       </c>
       <c r="R4">
-        <v>2.28977228424</v>
+        <v>4.434876093612</v>
       </c>
       <c r="S4">
-        <v>0.000479836272348371</v>
+        <v>0.0009025163386319263</v>
       </c>
       <c r="T4">
-        <v>0.000479836272348371</v>
+        <v>0.0009025163386319261</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.388528</v>
+        <v>0.947566</v>
       </c>
       <c r="H5">
-        <v>1.165584</v>
+        <v>2.842698</v>
       </c>
       <c r="I5">
-        <v>0.007753939069753493</v>
+        <v>0.01860557227824198</v>
       </c>
       <c r="J5">
-        <v>0.007753939069753493</v>
+        <v>0.01860557227824198</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.2001876666666667</v>
+        <v>0.1957573333333333</v>
       </c>
       <c r="N5">
-        <v>0.600563</v>
+        <v>0.587272</v>
       </c>
       <c r="O5">
-        <v>0.01891823194544989</v>
+        <v>0.01825999139348442</v>
       </c>
       <c r="P5">
-        <v>0.01891823194544989</v>
+        <v>0.01825999139348442</v>
       </c>
       <c r="Q5">
-        <v>0.07777851375466666</v>
+        <v>0.1854929933173333</v>
       </c>
       <c r="R5">
-        <v>0.700006623792</v>
+        <v>1.669436939856</v>
       </c>
       <c r="S5">
-        <v>0.0001466908178124825</v>
+        <v>0.000339737589671551</v>
       </c>
       <c r="T5">
-        <v>0.0001466908178124825</v>
+        <v>0.0003397375896715509</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>146.916541</v>
       </c>
       <c r="I6">
-        <v>0.9773486143023076</v>
+        <v>0.9615746457924133</v>
       </c>
       <c r="J6">
-        <v>0.9773486143023077</v>
+        <v>0.9615746457924131</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.481489333333334</v>
+        <v>2.759544333333333</v>
       </c>
       <c r="N6">
-        <v>7.444468000000001</v>
+        <v>8.278632999999999</v>
       </c>
       <c r="O6">
-        <v>0.2345069082418988</v>
+        <v>0.2574067337278401</v>
       </c>
       <c r="P6">
-        <v>0.2345069082418988</v>
+        <v>0.2574067337278401</v>
       </c>
       <c r="Q6">
-        <v>121.5239431272431</v>
+        <v>135.1409027298281</v>
       </c>
       <c r="R6">
-        <v>1093.715488145188</v>
+        <v>1216.268124568453</v>
       </c>
       <c r="S6">
-        <v>0.2291950018145382</v>
+        <v>0.2475157888089299</v>
       </c>
       <c r="T6">
-        <v>0.2291950018145382</v>
+        <v>0.2475157888089298</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>146.916541</v>
       </c>
       <c r="I7">
-        <v>0.9773486143023076</v>
+        <v>0.9615746457924133</v>
       </c>
       <c r="J7">
-        <v>0.9773486143023077</v>
+        <v>0.9615746457924131</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>21.735681</v>
       </c>
       <c r="O7">
-        <v>0.6846919551326143</v>
+        <v>0.6758254232987829</v>
       </c>
       <c r="P7">
-        <v>0.6846919551326142</v>
+        <v>0.6758254232987829</v>
       </c>
       <c r="Q7">
         <v>354.8145631999357</v>
@@ -883,10 +883,10 @@
         <v>3193.331068799421</v>
       </c>
       <c r="S7">
-        <v>0.6691827335727983</v>
+        <v>0.649856592026035</v>
       </c>
       <c r="T7">
-        <v>0.6691827335727982</v>
+        <v>0.6498565920260349</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>146.916541</v>
       </c>
       <c r="I8">
-        <v>0.9773486143023076</v>
+        <v>0.9615746457924133</v>
       </c>
       <c r="J8">
-        <v>0.9773486143023077</v>
+        <v>0.9615746457924131</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.6548283333333335</v>
+        <v>0.5200313333333334</v>
       </c>
       <c r="N8">
-        <v>1.964485</v>
+        <v>1.560094</v>
       </c>
       <c r="O8">
-        <v>0.06188290468003712</v>
+        <v>0.0485078515798926</v>
       </c>
       <c r="P8">
-        <v>0.06188290468003711</v>
+        <v>0.0485078515798926</v>
       </c>
       <c r="Q8">
-        <v>32.06837122737612</v>
+        <v>25.46706823498378</v>
       </c>
       <c r="R8">
-        <v>288.615341046385</v>
+        <v>229.203614114854</v>
       </c>
       <c r="S8">
-        <v>0.06048117113803606</v>
+        <v>0.04664392020108618</v>
       </c>
       <c r="T8">
-        <v>0.06048117113803606</v>
+        <v>0.04664392020108617</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,40 +977,40 @@
         <v>146.916541</v>
       </c>
       <c r="I9">
-        <v>0.9773486143023076</v>
+        <v>0.9615746457924133</v>
       </c>
       <c r="J9">
-        <v>0.9773486143023077</v>
+        <v>0.9615746457924131</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.2001876666666667</v>
+        <v>0.1957573333333333</v>
       </c>
       <c r="N9">
-        <v>0.600563</v>
+        <v>0.587272</v>
       </c>
       <c r="O9">
-        <v>0.01891823194544989</v>
+        <v>0.01825999139348442</v>
       </c>
       <c r="P9">
-        <v>0.01891823194544989</v>
+        <v>0.01825999139348442</v>
       </c>
       <c r="Q9">
-        <v>9.803626512509222</v>
+        <v>9.586663429572445</v>
       </c>
       <c r="R9">
-        <v>88.23263861258299</v>
+        <v>86.279970866152</v>
       </c>
       <c r="S9">
-        <v>0.0184897077769351</v>
+        <v>0.0175583447563623</v>
       </c>
       <c r="T9">
-        <v>0.0184897077769351</v>
+        <v>0.0175583447563623</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.7360316666666668</v>
+        <v>0.8226676666666667</v>
       </c>
       <c r="H10">
-        <v>2.208095</v>
+        <v>2.468003</v>
       </c>
       <c r="I10">
-        <v>0.01468914646239768</v>
+        <v>0.01615317849431</v>
       </c>
       <c r="J10">
-        <v>0.01468914646239768</v>
+        <v>0.01615317849431</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.481489333333334</v>
+        <v>2.759544333333333</v>
       </c>
       <c r="N10">
-        <v>7.444468000000001</v>
+        <v>8.278632999999999</v>
       </c>
       <c r="O10">
-        <v>0.2345069082418988</v>
+        <v>0.2574067337278401</v>
       </c>
       <c r="P10">
-        <v>0.2345069082418988</v>
+        <v>0.2574067337278401</v>
       </c>
       <c r="Q10">
-        <v>1.826454729828889</v>
+        <v>2.270187897766555</v>
       </c>
       <c r="R10">
-        <v>16.43809256846</v>
+        <v>20.431691079899</v>
       </c>
       <c r="S10">
-        <v>0.003444706321609306</v>
+        <v>0.004157936915543127</v>
       </c>
       <c r="T10">
-        <v>0.003444706321609306</v>
+        <v>0.004157936915543126</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.7360316666666668</v>
+        <v>0.8226676666666667</v>
       </c>
       <c r="H11">
-        <v>2.208095</v>
+        <v>2.468003</v>
       </c>
       <c r="I11">
-        <v>0.01468914646239768</v>
+        <v>0.01615317849431</v>
       </c>
       <c r="J11">
-        <v>0.01468914646239768</v>
+        <v>0.01615317849431</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>21.735681</v>
       </c>
       <c r="O11">
-        <v>0.6846919551326143</v>
+        <v>0.6758254232987829</v>
       </c>
       <c r="P11">
-        <v>0.6846919551326142</v>
+        <v>0.6758254232987829</v>
       </c>
       <c r="Q11">
-        <v>5.332716504188334</v>
+        <v>5.960413990560333</v>
       </c>
       <c r="R11">
-        <v>47.994448537695</v>
+        <v>53.643725915043</v>
       </c>
       <c r="S11">
-        <v>0.01005754041056839</v>
+        <v>0.01091672869353785</v>
       </c>
       <c r="T11">
-        <v>0.01005754041056839</v>
+        <v>0.01091672869353785</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.7360316666666668</v>
+        <v>0.8226676666666667</v>
       </c>
       <c r="H12">
-        <v>2.208095</v>
+        <v>2.468003</v>
       </c>
       <c r="I12">
-        <v>0.01468914646239768</v>
+        <v>0.01615317849431</v>
       </c>
       <c r="J12">
-        <v>0.01468914646239768</v>
+        <v>0.01615317849431</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.6548283333333335</v>
+        <v>0.5200313333333334</v>
       </c>
       <c r="N12">
-        <v>1.964485</v>
+        <v>1.560094</v>
       </c>
       <c r="O12">
-        <v>0.06188290468003712</v>
+        <v>0.0485078515798926</v>
       </c>
       <c r="P12">
-        <v>0.06188290468003711</v>
+        <v>0.0485078515798926</v>
       </c>
       <c r="Q12">
-        <v>0.481974389563889</v>
+        <v>0.427812963586889</v>
       </c>
       <c r="R12">
-        <v>4.337769506075001</v>
+        <v>3.850316672282</v>
       </c>
       <c r="S12">
-        <v>0.0009090070503636603</v>
+        <v>0.0007835559849455026</v>
       </c>
       <c r="T12">
-        <v>0.0009090070503636603</v>
+        <v>0.0007835559849455022</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.7360316666666668</v>
+        <v>0.8226676666666667</v>
       </c>
       <c r="H13">
-        <v>2.208095</v>
+        <v>2.468003</v>
       </c>
       <c r="I13">
-        <v>0.01468914646239768</v>
+        <v>0.01615317849431</v>
       </c>
       <c r="J13">
-        <v>0.01468914646239768</v>
+        <v>0.01615317849431</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.2001876666666667</v>
+        <v>0.1957573333333333</v>
       </c>
       <c r="N13">
-        <v>0.600563</v>
+        <v>0.587272</v>
       </c>
       <c r="O13">
-        <v>0.01891823194544989</v>
+        <v>0.01825999139348442</v>
       </c>
       <c r="P13">
-        <v>0.01891823194544989</v>
+        <v>0.01825999139348442</v>
       </c>
       <c r="Q13">
-        <v>0.1473444619427778</v>
+        <v>0.1610432286462222</v>
       </c>
       <c r="R13">
-        <v>1.326100157485</v>
+        <v>1.449389057816</v>
       </c>
       <c r="S13">
-        <v>0.0002778926798563241</v>
+        <v>0.0002949569002835182</v>
       </c>
       <c r="T13">
-        <v>0.0002778926798563241</v>
+        <v>0.0002949569002835182</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.01043733333333333</v>
+        <v>0.186737</v>
       </c>
       <c r="H14">
-        <v>0.031312</v>
+        <v>0.560211</v>
       </c>
       <c r="I14">
-        <v>0.0002083001655411548</v>
+        <v>0.003666603435034682</v>
       </c>
       <c r="J14">
-        <v>0.0002083001655411548</v>
+        <v>0.003666603435034681</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.481489333333334</v>
+        <v>2.759544333333333</v>
       </c>
       <c r="N14">
-        <v>7.444468000000001</v>
+        <v>8.278632999999999</v>
       </c>
       <c r="O14">
-        <v>0.2345069082418988</v>
+        <v>0.2574067337278401</v>
       </c>
       <c r="P14">
-        <v>0.2345069082418988</v>
+        <v>0.2574067337278401</v>
       </c>
       <c r="Q14">
-        <v>0.02590013133511112</v>
+        <v>0.5153090301736666</v>
       </c>
       <c r="R14">
-        <v>0.233101182016</v>
+        <v>4.637781271563</v>
       </c>
       <c r="S14">
-        <v>4.884782780733191E-05</v>
+        <v>0.0009438084140875561</v>
       </c>
       <c r="T14">
-        <v>4.884782780733191E-05</v>
+        <v>0.0009438084140875559</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.01043733333333333</v>
+        <v>0.186737</v>
       </c>
       <c r="H15">
-        <v>0.031312</v>
+        <v>0.560211</v>
       </c>
       <c r="I15">
-        <v>0.0002083001655411548</v>
+        <v>0.003666603435034682</v>
       </c>
       <c r="J15">
-        <v>0.0002083001655411548</v>
+        <v>0.003666603435034681</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>21.735681</v>
       </c>
       <c r="O15">
-        <v>0.6846919551326143</v>
+        <v>0.6758254232987829</v>
       </c>
       <c r="P15">
-        <v>0.6846919551326142</v>
+        <v>0.6758254232987829</v>
       </c>
       <c r="Q15">
-        <v>0.07562084927466667</v>
+        <v>1.352951954299</v>
       </c>
       <c r="R15">
-        <v>0.680587643472</v>
+        <v>12.176567588691</v>
       </c>
       <c r="S15">
-        <v>0.0001426214475988205</v>
+        <v>0.002477983818551085</v>
       </c>
       <c r="T15">
-        <v>0.0001426214475988205</v>
+        <v>0.002477983818551085</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.01043733333333333</v>
+        <v>0.186737</v>
       </c>
       <c r="H16">
-        <v>0.031312</v>
+        <v>0.560211</v>
       </c>
       <c r="I16">
-        <v>0.0002083001655411548</v>
+        <v>0.003666603435034682</v>
       </c>
       <c r="J16">
-        <v>0.0002083001655411548</v>
+        <v>0.003666603435034681</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.6548283333333335</v>
+        <v>0.5200313333333334</v>
       </c>
       <c r="N16">
-        <v>1.964485</v>
+        <v>1.560094</v>
       </c>
       <c r="O16">
-        <v>0.06188290468003712</v>
+        <v>0.0485078515798926</v>
       </c>
       <c r="P16">
-        <v>0.06188290468003711</v>
+        <v>0.0485078515798926</v>
       </c>
       <c r="Q16">
-        <v>0.006834661591111112</v>
+        <v>0.09710909109266669</v>
       </c>
       <c r="R16">
-        <v>0.06151195432000001</v>
+        <v>0.873981819834</v>
       </c>
       <c r="S16">
-        <v>1.289021928901923E-05</v>
+        <v>0.0001778590552289867</v>
       </c>
       <c r="T16">
-        <v>1.289021928901923E-05</v>
+        <v>0.0001778590552289867</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.01043733333333333</v>
+        <v>0.186737</v>
       </c>
       <c r="H17">
-        <v>0.031312</v>
+        <v>0.560211</v>
       </c>
       <c r="I17">
-        <v>0.0002083001655411548</v>
+        <v>0.003666603435034682</v>
       </c>
       <c r="J17">
-        <v>0.0002083001655411548</v>
+        <v>0.003666603435034681</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.2001876666666667</v>
+        <v>0.1957573333333333</v>
       </c>
       <c r="N17">
-        <v>0.600563</v>
+        <v>0.587272</v>
       </c>
       <c r="O17">
-        <v>0.01891823194544989</v>
+        <v>0.01825999139348442</v>
       </c>
       <c r="P17">
-        <v>0.01891823194544989</v>
+        <v>0.01825999139348442</v>
       </c>
       <c r="Q17">
-        <v>0.002089425406222222</v>
+        <v>0.03655513715466667</v>
       </c>
       <c r="R17">
-        <v>0.018804828656</v>
+        <v>0.328996234392</v>
       </c>
       <c r="S17">
-        <v>3.940670845983174E-06</v>
+        <v>6.695214716705371E-05</v>
       </c>
       <c r="T17">
-        <v>3.940670845983175E-06</v>
+        <v>6.69521471670537E-05</v>
       </c>
     </row>
   </sheetData>
